--- a/UNODA_Disarmament_Treaties_Database/Disarmament_Treaties/Antarctic_Treaty.xlsx
+++ b/UNODA_Disarmament_Treaties_Database/Disarmament_Treaties/Antarctic_Treaty.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
